--- a/upload_data_with_monetization.xlsx
+++ b/upload_data_with_monetization.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>crige as fuck</t>
+          <t>sadasd</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sdadsda</t>
+          <t>sdasd</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -494,22 +494,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>crige as fuck</t>
+          <t>sadasd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sdadsda</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10/24/2025</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14:49</t>
+          <t>sdasd</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>

--- a/upload_data_with_monetization.xlsx
+++ b/upload_data_with_monetization.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,48 +461,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P-20250927_105039</t>
+          <t>skibidi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sadasd</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>sdasd</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10/24/2025</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12:10</t>
+          <t>đasa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P-20250925_041637</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sadasd</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>sdasd</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/upload_data_with_monetization.xlsx
+++ b/upload_data_with_monetization.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>đasa</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>đa</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>OFF</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/upload_data_with_monetization.xlsx
+++ b/upload_data_with_monetization.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,24 +457,38 @@
           <t>move_folder</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>monetization</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>skibidi</t>
+          <t>cringe</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>E:\storage2\901.mp4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>đa</t>
+          <t>ádasdasdasd</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>C:\Users\Admin\Downloads\901.mp4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OFF</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>False</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/upload_data_with_monetization.xlsx
+++ b/upload_data_with_monetization.xlsx
@@ -466,22 +466,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cringe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>E:\storage2\901.mp4</t>
+          <t>dkm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ádasdasdasd</t>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10/31/2025</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>a</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C:\Users\Admin\Downloads\901.mp4</t>
+          <t>C:\Users\Admin\Downloads</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
